--- a/update_data/data/ecovacs/sale_2/营销对话.xlsx
+++ b/update_data/data/ecovacs/sale_2/营销对话.xlsx
@@ -53,6 +53,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等价描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不感兴趣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那是什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去哪买呀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>不感兴趣/没兴趣/没什么意思/我觉得没意思/没什么意义的东西呀/这我又用不上/用不着/不必了/没必要/没用/我不想办/根本没用呀/没什么必要/并没有什么意义/这个你不用跟我说/这个你不必介绍了/算了，你别说了/我对这个并不感兴趣/并没有什么意思/我对这个没兴趣/我不要/不用了/没意思</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/不想买/不想要/对这个没有任何兴趣/这个没法吸引我/这个吸引不了我/一点意思都没有/这个不好玩/毫无兴趣/没什么兴趣/没一点兴趣/没啥兴趣/没啥用处/不适合我/不合适/我用不了/我不想用这个/我不愿意用这个/不实用/觉得没什么用/不想/没啥兴趣/没意思/没意思我不想去/不想认识/不想要了解/当然不想了解了/当然是不想认识/不想认识/不/不要/不想要/不愿意/不愿意了解</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>去哪买呀?/怎么办理？/怎么处理？/怎么弄啊？/去哪里办？/怎么办这个？/怎么办理这个？/怎么弄这个？/怎么处理呀？/那怎么办理？/怎么买/怎么买啊/怎么买呀/去哪儿买/去哪里买啊/这个要去哪买啊？/这个要怎么买啊？/</t>
     </r>
@@ -65,13 +106,24 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>这个该怎么处理？/这个该怎么弄？/这个要怎么弄？/弄这个需要什么？/弄这些需要什么手续？/怎么做啊？/怎么搞？/咋弄？/咋弄的？/咋处理？/咋处理的？/咋做的？/咋办？/咋办的？/咋买？/咋买的？/去哪里弄？/去哪儿弄？/去哪儿办？</t>
+      <t>这个该怎么处理？/这个该怎么弄？/这个要怎么弄？/弄这个需要什么？/弄这些需要什么手续？/怎么做啊？/怎么搞？/咋弄？/咋弄的？/咋处理？/咋处理的？/咋做的？/咋办？/咋办的？/咋买？/咋买的？/去哪里弄？/去哪儿弄？/去哪儿办？/怎么看/怎么认识/怎么了解/咋认识/咋了解/你知道怎么了解吗/你知道怎么认识吗/怎么认识的/怎么了解的/咋认识啊/怎么去了解/了解怎么弄/该咋了解/你可以跟我说怎么买吗</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>不感兴趣/没兴趣/没什么意思/我觉得没意思/没什么意义的东西呀/这我又用不上/用不着/不必了/没必要/没用/我不想办/根本没用呀/没什么必要/并没有什么意义/这个你不用跟我说/这个你不必介绍了/算了，你别说了/我对这个并不感兴趣/并没有什么意思/我对这个没兴趣/我不要/不用了/没意思</t>
+      <t>那是什么？/这是什么？/你说的是什么？/你再说详细一点/你再多介绍一下/你多说说看/你具体说一下/貌似挺好的呀/挺不错的/我挺有兴趣的，你说一下/感觉蛮好的，你再说说看/你能给我介绍一下吗/介绍介绍/给我介绍介绍/介绍一下吧/介绍一下/能详细介绍一下吗/详细介绍一下/这个是什么/这是什么啊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/详细介绍/详细说说/说的详细点/详细介绍一下/详细介绍介绍/介绍的详细点/给我介绍介绍吧/是做什么的/能干吗/能做什么/有什么用处/我想了解一下/能给我详细说说吗/给我详细介绍一下吧/这个有什么用/这个能干嘛/这个是用来干什么的/有什么用处啊/有啥用/能干啥/是用来干嘛的/是用来做什么的/可以用来做什么？/能用它干嘛/用它能干嘛/感觉还不错/觉得挺好的/很好呀，介绍一下/挺感兴趣的/感觉挺好玩的/觉得好有意思啊/挺合适的/感觉比较实用/这个很有吸引力/吸引我/挺吸引我的/我对这个比较有兴趣/我对此感兴趣的/我愿意听介绍/你就给我介绍一下吧/那你给我介绍/那你就介绍一下给我看看吧/你给我介绍看一下/你跟我说说呗</t>
     </r>
     <r>
       <rPr>
@@ -82,49 +134,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/不想买/不想要/对这个没有任何兴趣/这个没法吸引我/这个吸引不了我/一点意思都没有/这个不好玩/毫无兴趣/没什么兴趣/没一点兴趣/没啥兴趣/没啥用处/不适合我/不合适/我用不了/我不想用这个/我不愿意用这个/不实用/觉得没什么用</t>
+      <t>嗯/嗯，我有兴趣/嗯，我想了解/嗯，我想认识一下/嗯，我感兴趣/嗯，我有兴趣/嗯，我想进店看看/嗯，我想进店看看/嗯嗯/是的，我有兴趣/是的，我想了解/是的，我想认识一下/是的，我感兴趣/是的，我有兴趣/是的，我想进店看看/是的，我想进店看看/是的，我想认识一下/是/是的/可以/想/我想/我想要/我想看/我感兴趣/我是感兴趣的/我是感兴趣呀/我当然感兴趣啦/我想要了解/我想要了解一下/想要/想认识一下/感兴趣的/当然是感兴趣了/有兴趣了解/当然是有兴趣了解了/想了解一下/我想了解一下/我当然想了解了/我有兴趣呀/我有兴趣呀/我非常有兴趣/对/当然/当然，我有兴趣/当然，我想了解/当然，我想认识一下/当然，我感兴趣/当然，我有兴趣/当然，我想进店看看/当然，我想进店看看/当然当然/好/好呀/好啊/当然好了/当然要了解一下/有兴趣有兴趣/感兴趣感兴趣/我很有兴趣/我很感兴趣/我是感兴趣的/我是有兴趣的/好，我有兴趣/好，我想了解/好，我想认识一下/好，我感兴趣/好，我有兴趣/好，我想进店看看/好，我想进店看看/好好/好呀好呀/可以的/有/有兴趣/有兴趣的/当然有兴趣啦/我很有兴趣</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>那是什么？/这是什么？/你说的是什么？/你再说详细一点/你再多介绍一下/你多说说看/你具体说一下/貌似挺好的呀/挺不错的/我挺有兴趣的，你说一下/感觉蛮好的，你再说说看/你能给我介绍一下吗/介绍介绍/给我介绍介绍/介绍一下吧/介绍一下/能详细介绍一下吗/详细介绍一下/这个是什么/这是什么啊/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>详细介绍/详细说说/说的详细点/详细介绍一下/详细介绍介绍/介绍的详细点/给我介绍介绍吧/是做什么的/能干吗/能做什么/有什么用处/我想了解一下/能给我详细说说吗/给我详细介绍一下吧/这个有什么用/这个能干嘛/这个是用来干什么的/有什么用处啊/有啥用/能干啥/是用来干嘛的/是用来做什么的/可以用来做什么？/能用它干嘛/用它能干嘛/感觉还不错/觉得挺好的/很好呀，介绍一下/挺感兴趣的/感觉挺好玩的/觉得好有意思啊/挺合适的/感觉比较实用/这个很有吸引力/吸引我/挺吸引我的/我对这个比较有兴趣/我对此感兴趣的/我愿意听介绍/你就给我介绍一下吧/</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营销类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等价描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不感兴趣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那是什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去哪买呀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +532,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -534,7 +545,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -543,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -554,44 +565,44 @@
     </row>
     <row r="2" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="151.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="246.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
